--- a/src/assets/對帳單明細.xlsx
+++ b/src/assets/對帳單明細.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai\G-Tai\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai-client\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="8085" tabRatio="783"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12075" tabRatio="783"/>
   </bookViews>
   <sheets>
     <sheet name="明細" sheetId="1" r:id="rId1"/>
@@ -211,13 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,12 +229,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -311,52 +299,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,109 +677,109 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="11" customWidth="1"/>
     <col min="8" max="9" width="13.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="3"/>
+    <col min="10" max="10" width="14.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/assets/對帳單明細.xlsx
+++ b/src/assets/對帳單明細.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai-client\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai\G-Tai\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12075" tabRatio="783"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="783"/>
   </bookViews>
   <sheets>
     <sheet name="明細" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>期別：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <color rgb="FF212529"/>
         <rFont val="新細明體"/>
         <family val="1"/>
@@ -72,33 +60,6 @@
         <charset val="136"/>
       </rPr>
       <t>帳單組別：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>車牌</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>交易日期</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,45 +86,6 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>油品</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單價</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>油量</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>折讓</t>
     </r>
   </si>
@@ -190,27 +112,45 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>售價小計</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>里程數</t>
     </r>
+  </si>
+  <si>
+    <t>帳單期別：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車牌號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日期時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售價金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -299,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,20 +259,38 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +635,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,101 +644,101 @@
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="12" customWidth="1"/>
     <col min="8" max="9" width="13.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="I6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -792,14 +750,11 @@
     <mergeCell ref="B4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,粗體"鉅泰創新股份有限公司&amp;R
 &amp;P/&amp;N</oddHeader>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="A6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>